--- a/mvp/рецепт смажена картопля.xlsx
+++ b/mvp/рецепт смажена картопля.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -402,12 +402,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18.26953125" customWidth="1" min="1" max="1"/>
+    <col width="18.21875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/mvp/рецепт смажена картопля.xlsx
+++ b/mvp/рецепт смажена картопля.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -399,10 +399,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -418,183 +418,193 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>вихід</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>заг варт</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>заг кал</t>
-        </is>
-      </c>
+          <t>вареники</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>смажена картопля</t>
+          <t>вихід</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" t="n">
-        <v>20.551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2650</v>
-      </c>
     </row>
-    <row r="3" customFormat="1" s="1">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>сума</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>на 1кг</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>брутто</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>нетто</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>варт</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>кал</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ціна</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>кал100г</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>%ваги</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>%варт</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>%кал</t>
         </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>картопля</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>940</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2350</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>250</v>
-      </c>
-      <c r="G4">
-        <f>(B4/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H4">
-        <f>(C4/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I4">
-        <f>(D4/D2)*100</f>
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>олія</t>
+          <t>картопля</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>940</v>
       </c>
       <c r="C5" t="n">
-        <v>1.75</v>
+        <v>846</v>
       </c>
       <c r="D5" t="n">
-        <v>300</v>
+        <v>18.8</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>2115</v>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
-      </c>
-      <c r="G5">
-        <f>(B5/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H5">
-        <f>(C5/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I5">
-        <f>(D5/D2)*100</f>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>600</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>сіль</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="G6">
-        <f>(B6/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H6">
-        <f>(C6/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I6">
-        <f>(D6/D2)*100</f>
-        <v/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
